--- a/spec/contabilidad/resources/poliza/poliza_C7864.xlsx
+++ b/spec/contabilidad/resources/poliza/poliza_C7864.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="2200" windowWidth="25360" windowHeight="14100" tabRatio="676" activeTab="6"/>
@@ -972,7 +972,7 @@
     <t>PEMÑ880216RW3</t>
   </si>
   <si>
-    <t>999</t>
+    <t>998</t>
   </si>
 </sst>
 </file>
